--- a/CTG/CDKT.xlsx
+++ b/CTG/CDKT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM66"/>
+  <dimension ref="A1:BN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,11 @@
           <t>Q1/2025</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1086,6 +1091,11 @@
           <t>01/01-31/03</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>01/04-30/06</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1413,6 +1423,11 @@
           <t>Hợp nhất</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Hợp nhất</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1736,6 +1751,11 @@
         </is>
       </c>
       <c r="BM4" t="inlineStr">
+        <is>
+          <t>Chưa kiểm toán</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
         <is>
           <t>Chưa kiểm toán</t>
         </is>
@@ -1811,6 +1831,7 @@
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1882,6 +1903,7 @@
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1949,6 +1971,7 @@
       <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2020,6 +2043,7 @@
       <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2347,6 +2371,11 @@
           <t>11518</t>
         </is>
       </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>11463</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2674,6 +2703,11 @@
           <t>13043</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>13692</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3001,6 +3035,11 @@
           <t>406579</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>428879</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3328,6 +3367,11 @@
           <t>401758</t>
         </is>
       </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>425173</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3653,6 +3697,11 @@
       <c r="BM13" t="inlineStr">
         <is>
           <t>4821</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>3707</t>
         </is>
       </c>
     </row>
@@ -3854,6 +3903,7 @@
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="inlineStr"/>
       <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4181,6 +4231,11 @@
           <t>3067</t>
         </is>
       </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>2209</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4508,6 +4563,11 @@
           <t>3211</t>
         </is>
       </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4835,6 +4895,11 @@
           <t>-145</t>
         </is>
       </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>-117</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5122,6 +5187,7 @@
       </c>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5449,6 +5515,11 @@
           <t>1762190</t>
         </is>
       </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>1865914</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5776,6 +5847,11 @@
           <t>1800459</t>
         </is>
       </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>1899352</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6101,6 +6177,11 @@
       <c r="BM21" t="inlineStr">
         <is>
           <t>-38269</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>-33437</t>
         </is>
       </c>
     </row>
@@ -6222,6 +6303,7 @@
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6341,6 +6423,7 @@
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr"/>
       <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6460,6 +6543,7 @@
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="inlineStr"/>
       <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6787,6 +6871,11 @@
           <t>215370</t>
         </is>
       </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>227709</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7114,6 +7203,11 @@
           <t>191116</t>
         </is>
       </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>208353</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7441,6 +7535,11 @@
           <t>24769</t>
         </is>
       </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>19875</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7768,6 +7867,11 @@
           <t>-515</t>
         </is>
       </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>-519</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8093,6 +8197,11 @@
       <c r="BM29" t="inlineStr">
         <is>
           <t>4071</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>4231</t>
         </is>
       </c>
     </row>
@@ -8266,6 +8375,7 @@
       <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8593,6 +8703,11 @@
           <t>3844</t>
         </is>
       </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8920,6 +9035,11 @@
           <t>234</t>
         </is>
       </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9239,6 +9359,11 @@
           <t>-7</t>
         </is>
       </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9566,6 +9691,11 @@
           <t>9801</t>
         </is>
       </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>9957</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9891,6 +10021,11 @@
       <c r="BM35" t="inlineStr">
         <is>
           <t>5999</t>
+        </is>
+      </c>
+      <c r="BN35" t="inlineStr">
+        <is>
+          <t>6117</t>
         </is>
       </c>
     </row>
@@ -10064,6 +10199,7 @@
       <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="inlineStr"/>
       <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10389,6 +10525,11 @@
       <c r="BM37" t="inlineStr">
         <is>
           <t>3802</t>
+        </is>
+      </c>
+      <c r="BN37" t="inlineStr">
+        <is>
+          <t>3840</t>
         </is>
       </c>
     </row>
@@ -10562,6 +10703,7 @@
       <c r="BK38" t="inlineStr"/>
       <c r="BL38" t="inlineStr"/>
       <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10733,6 +10875,7 @@
       <c r="BK39" t="inlineStr"/>
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10904,6 +11047,7 @@
       <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11231,6 +11375,11 @@
           <t>44224</t>
         </is>
       </c>
+      <c r="BN41" t="inlineStr">
+        <is>
+          <t>45733</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11558,6 +11707,11 @@
           <t>25494</t>
         </is>
       </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>26492</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11883,6 +12037,11 @@
       <c r="BM43" t="inlineStr">
         <is>
           <t>15278</t>
+        </is>
+      </c>
+      <c r="BN43" t="inlineStr">
+        <is>
+          <t>15770</t>
         </is>
       </c>
     </row>
@@ -12084,6 +12243,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12409,6 +12573,11 @@
       <c r="BM45" t="inlineStr">
         <is>
           <t>3566</t>
+        </is>
+      </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>3583</t>
         </is>
       </c>
     </row>
@@ -12642,6 +12811,7 @@
       <c r="BK46" t="inlineStr"/>
       <c r="BL46" t="inlineStr"/>
       <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12969,6 +13139,11 @@
           <t>-113</t>
         </is>
       </c>
+      <c r="BN47" t="inlineStr">
+        <is>
+          <t>-112</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13294,6 +13469,11 @@
       <c r="BM48" t="inlineStr">
         <is>
           <t>2469863</t>
+        </is>
+      </c>
+      <c r="BN48" t="inlineStr">
+        <is>
+          <t>2609788</t>
         </is>
       </c>
     </row>
@@ -13367,6 +13547,7 @@
       <c r="BK49" t="inlineStr"/>
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="inlineStr"/>
+      <c r="BN49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13694,6 +13875,11 @@
           <t>138575</t>
         </is>
       </c>
+      <c r="BN50" t="inlineStr">
+        <is>
+          <t>138528</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14021,6 +14207,11 @@
           <t>309039</t>
         </is>
       </c>
+      <c r="BN51" t="inlineStr">
+        <is>
+          <t>306986</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14346,6 +14537,11 @@
       <c r="BM52" t="inlineStr">
         <is>
           <t>1621227</t>
+        </is>
+      </c>
+      <c r="BN52" t="inlineStr">
+        <is>
+          <t>1719958</t>
         </is>
       </c>
     </row>
@@ -14559,6 +14755,11 @@
           <t>533</t>
         </is>
       </c>
+      <c r="BN53" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14886,6 +15087,11 @@
           <t>2115</t>
         </is>
       </c>
+      <c r="BN54" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15213,6 +15419,11 @@
           <t>203356</t>
         </is>
       </c>
+      <c r="BN55" t="inlineStr">
+        <is>
+          <t>227954</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15540,6 +15751,11 @@
           <t>41036</t>
         </is>
       </c>
+      <c r="BN56" t="inlineStr">
+        <is>
+          <t>49732</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15867,6 +16083,11 @@
           <t>2315881</t>
         </is>
       </c>
+      <c r="BN57" t="inlineStr">
+        <is>
+          <t>2445962</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16194,6 +16415,11 @@
           <t>153982</t>
         </is>
       </c>
+      <c r="BN58" t="inlineStr">
+        <is>
+          <t>163826</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16521,6 +16747,11 @@
           <t>63584</t>
         </is>
       </c>
+      <c r="BN59" t="inlineStr">
+        <is>
+          <t>64068</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16844,6 +17075,11 @@
           <t>25314</t>
         </is>
       </c>
+      <c r="BN60" t="inlineStr">
+        <is>
+          <t>25344</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17169,6 +17405,11 @@
       <c r="BM61" t="inlineStr">
         <is>
           <t>230</t>
+        </is>
+      </c>
+      <c r="BN61" t="inlineStr">
+        <is>
+          <t>409</t>
         </is>
       </c>
     </row>
@@ -17342,6 +17583,7 @@
       <c r="BK62" t="inlineStr"/>
       <c r="BL62" t="inlineStr"/>
       <c r="BM62" t="inlineStr"/>
+      <c r="BN62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17667,6 +17909,11 @@
       <c r="BM63" t="inlineStr">
         <is>
           <t>63803</t>
+        </is>
+      </c>
+      <c r="BN63" t="inlineStr">
+        <is>
+          <t>72903</t>
         </is>
       </c>
     </row>
@@ -17906,6 +18153,11 @@
       <c r="BM64" t="inlineStr">
         <is>
           <t>1051</t>
+        </is>
+      </c>
+      <c r="BN64" t="inlineStr">
+        <is>
+          <t>1102</t>
         </is>
       </c>
     </row>
@@ -18115,6 +18367,7 @@
       <c r="BK65" t="inlineStr"/>
       <c r="BL65" t="inlineStr"/>
       <c r="BM65" t="inlineStr"/>
+      <c r="BN65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18440,6 +18693,11 @@
       <c r="BM66" t="inlineStr">
         <is>
           <t>2469863</t>
+        </is>
+      </c>
+      <c r="BN66" t="inlineStr">
+        <is>
+          <t>2609788</t>
         </is>
       </c>
     </row>
